--- a/STM32/STM32F103C8T6引脚定义.xlsx
+++ b/STM32/STM32F103C8T6引脚定义.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="152">
   <si>
     <t>STM32F103C8T6引脚定义表</t>
   </si>
@@ -127,6 +127,9 @@
     <t>PWMA</t>
   </si>
   <si>
+    <t>TB6612_5V</t>
+  </si>
+  <si>
     <t xml:space="preserve">PA1 </t>
   </si>
   <si>
@@ -226,6 +229,12 @@
     <t>TIM2_CH3</t>
   </si>
   <si>
+    <t>SCL_Hard</t>
+  </si>
+  <si>
+    <t>mpu6050_3.3V</t>
+  </si>
+  <si>
     <t xml:space="preserve">PB11 </t>
   </si>
   <si>
@@ -235,6 +244,9 @@
     <t>TIM2_CH4</t>
   </si>
   <si>
+    <t>SDA_Hard</t>
+  </si>
+  <si>
     <t xml:space="preserve">VSS_1 </t>
   </si>
   <si>
@@ -268,12 +280,21 @@
     <t>SPI2_MISO/USART3_RTS/TIM1_CH2N</t>
   </si>
   <si>
+    <t>IN1</t>
+  </si>
+  <si>
+    <t>编码器中断_5V</t>
+  </si>
+  <si>
     <t xml:space="preserve">PB15 </t>
   </si>
   <si>
     <t>SPI2_MOSI/TIM1_CH3N</t>
   </si>
   <si>
+    <t>IN2</t>
+  </si>
+  <si>
     <t xml:space="preserve">PA8 </t>
   </si>
   <si>
@@ -289,12 +310,21 @@
     <t>USART1_TX/TIM1_CH2</t>
   </si>
   <si>
+    <t>TX</t>
+  </si>
+  <si>
+    <t>串口</t>
+  </si>
+  <si>
     <t xml:space="preserve">PA10 </t>
   </si>
   <si>
     <t>USART1_RX/TIM1_CH3</t>
   </si>
   <si>
+    <t>RX</t>
+  </si>
+  <si>
     <t xml:space="preserve">PA11 </t>
   </si>
   <si>
@@ -412,6 +442,12 @@
     <t>I2C1_SCL/CAN_RX</t>
   </si>
   <si>
+    <t>SCL</t>
+  </si>
+  <si>
+    <t>OLED_5V</t>
+  </si>
+  <si>
     <t xml:space="preserve">PB9 </t>
   </si>
   <si>
@@ -419,6 +455,9 @@
   </si>
   <si>
     <t>I2C1_SDA/CAN_TX</t>
+  </si>
+  <si>
+    <t>SDA</t>
   </si>
   <si>
     <t xml:space="preserve">VSS_3 </t>
@@ -443,7 +482,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -475,13 +514,6 @@
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -628,7 +660,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -697,12 +729,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -823,12 +849,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -836,12 +856,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -972,48 +986,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1023,101 +1040,98 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1158,6 +1172,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1481,13 +1501,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H50"/>
+  <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B25" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.6296296296296" defaultRowHeight="19.5" customHeight="1" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="16.6296296296296" defaultRowHeight="19.5" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="8.37962962962963" style="1" customWidth="1"/>
     <col min="2" max="2" width="21.25" style="1" customWidth="1"/>
@@ -1702,7 +1722,7 @@
       <c r="G11" s="7"/>
       <c r="H11" s="5"/>
     </row>
-    <row r="12" customHeight="1" spans="1:8">
+    <row r="12" customHeight="1" spans="1:9">
       <c r="A12" s="8">
         <v>10</v>
       </c>
@@ -1723,136 +1743,144 @@
       <c r="H12" s="13" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="13" customHeight="1" spans="1:8">
+      <c r="I12" s="15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="1:9">
       <c r="A13" s="8">
         <v>11</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" customHeight="1" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="I13" s="15"/>
+    </row>
+    <row r="14" customHeight="1" spans="1:9">
       <c r="A14" s="8">
         <v>12</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G14" s="9"/>
       <c r="H14" s="13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" customHeight="1" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="I14" s="15"/>
+    </row>
+    <row r="15" customHeight="1" spans="1:9">
       <c r="A15" s="8">
         <v>13</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G15" s="9"/>
       <c r="H15" s="13" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" customHeight="1" spans="1:8">
+        <v>46</v>
+      </c>
+      <c r="I15" s="15"/>
+    </row>
+    <row r="16" customHeight="1" spans="1:9">
       <c r="A16" s="8">
         <v>14</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G16" s="9"/>
       <c r="H16" s="13" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" customHeight="1" spans="1:8">
+        <v>49</v>
+      </c>
+      <c r="I16" s="15"/>
+    </row>
+    <row r="17" customHeight="1" spans="1:9">
       <c r="A17" s="8">
         <v>15</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G17" s="9"/>
       <c r="H17" s="13" t="s">
-        <v>51</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="I17" s="15"/>
     </row>
     <row r="18" customHeight="1" spans="1:8">
       <c r="A18" s="8">
         <v>16</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H18" s="5"/>
     </row>
@@ -1861,20 +1889,20 @@
         <v>17</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H19" s="5"/>
     </row>
@@ -1883,20 +1911,20 @@
         <v>18</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H20" s="5"/>
     </row>
@@ -1905,20 +1933,20 @@
         <v>19</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H21" s="5"/>
     </row>
@@ -1927,80 +1955,90 @@
         <v>20</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C22" s="10" t="s">
         <v>12</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
       <c r="H22" s="5"/>
     </row>
-    <row r="23" customHeight="1" spans="1:7">
+    <row r="23" customHeight="1" spans="1:9">
       <c r="A23" s="8">
         <v>21</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="24" customHeight="1" spans="1:7">
+        <v>70</v>
+      </c>
+      <c r="H23" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="I23" s="15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" spans="1:9">
       <c r="A24" s="8">
         <v>22</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>72</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="H24" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="I24" s="15"/>
     </row>
     <row r="25" customHeight="1" spans="1:8">
       <c r="A25" s="6">
         <v>23</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D25" s="6"/>
       <c r="E25" s="6" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
@@ -2011,14 +2049,14 @@
         <v>24</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D26" s="6"/>
       <c r="E26" s="6" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
@@ -2029,19 +2067,19 @@
         <v>25</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="G27" s="9"/>
       <c r="H27" s="5"/>
@@ -2051,151 +2089,167 @@
         <v>26</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="G28" s="9"/>
       <c r="H28" s="5"/>
     </row>
-    <row r="29" customHeight="1" spans="1:8">
+    <row r="29" customHeight="1" spans="1:9">
       <c r="A29" s="8">
         <v>27</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G29" s="9"/>
-      <c r="H29" s="5"/>
-    </row>
-    <row r="30" customHeight="1" spans="1:8">
+      <c r="H29" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="I29" s="15" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="30" customHeight="1" spans="1:9">
       <c r="A30" s="8">
         <v>28</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="C30" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="G30" s="9"/>
-      <c r="H30" s="5"/>
+      <c r="H30" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="I30" s="15"/>
     </row>
     <row r="31" customHeight="1" spans="1:8">
       <c r="A31" s="8">
         <v>29</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="C31" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="G31" s="9"/>
       <c r="H31" s="5"/>
     </row>
-    <row r="32" customHeight="1" spans="1:8">
+    <row r="32" customHeight="1" spans="1:9">
       <c r="A32" s="8">
         <v>30</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="C32" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="G32" s="9"/>
-      <c r="H32" s="5"/>
-    </row>
-    <row r="33" customHeight="1" spans="1:8">
+      <c r="H32" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="I32" s="15" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="33" customHeight="1" spans="1:9">
       <c r="A33" s="8">
         <v>31</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="C33" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="G33" s="9"/>
-      <c r="H33" s="5"/>
+      <c r="H33" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="I33" s="15"/>
     </row>
     <row r="34" customHeight="1" spans="1:8">
       <c r="A34" s="8">
         <v>32</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="C34" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="G34" s="9"/>
       <c r="H34" s="5"/>
@@ -2205,19 +2259,19 @@
         <v>33</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="C35" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="G35" s="9"/>
       <c r="H35" s="5"/>
@@ -2227,20 +2281,20 @@
         <v>34</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="C36" s="10" t="s">
         <v>12</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="F36" s="11"/>
       <c r="G36" s="10" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="H36" s="5"/>
     </row>
@@ -2249,14 +2303,14 @@
         <v>35</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="C37" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="6"/>
       <c r="E37" s="6" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
@@ -2267,14 +2321,14 @@
         <v>36</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="6"/>
       <c r="E38" s="6" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
@@ -2285,20 +2339,20 @@
         <v>37</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="C39" s="10" t="s">
         <v>12</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="F39" s="11"/>
       <c r="G39" s="10" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="H39" s="5"/>
     </row>
@@ -2307,20 +2361,20 @@
         <v>38</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="C40" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="F40" s="9"/>
       <c r="G40" s="8" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="H40" s="5"/>
     </row>
@@ -2329,20 +2383,20 @@
         <v>39</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="C41" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="F41" s="9"/>
       <c r="G41" s="8" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="H41" s="5"/>
     </row>
@@ -2351,20 +2405,20 @@
         <v>40</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="C42" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="F42" s="9"/>
       <c r="G42" s="8" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="H42" s="5"/>
     </row>
@@ -2373,20 +2427,20 @@
         <v>41</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="C43" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="G43" s="8" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="H43" s="5"/>
     </row>
@@ -2395,22 +2449,22 @@
         <v>42</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="C44" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="G44" s="8" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
     </row>
     <row r="45" customHeight="1" spans="1:7">
@@ -2418,22 +2472,22 @@
         <v>43</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="C45" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="G45" s="8" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
     </row>
     <row r="46" customHeight="1" spans="1:7">
@@ -2441,77 +2495,87 @@
         <v>44</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="C46" s="10" t="s">
         <v>22</v>
       </c>
       <c r="D46" s="10"/>
       <c r="E46" s="10" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="F46" s="11"/>
       <c r="G46" s="11"/>
     </row>
-    <row r="47" customHeight="1" spans="1:7">
+    <row r="47" customHeight="1" spans="1:9">
       <c r="A47" s="8">
         <v>45</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="C47" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="G47" s="8" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="48" customHeight="1" spans="1:7">
+        <v>141</v>
+      </c>
+      <c r="H47" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="I47" s="15" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="48" customHeight="1" spans="1:9">
       <c r="A48" s="8">
         <v>46</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="C48" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="G48" s="8" t="s">
-        <v>134</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="H48" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="I48" s="15"/>
     </row>
     <row r="49" customHeight="1" spans="1:8">
       <c r="A49" s="6">
         <v>47</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="C49" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="6"/>
       <c r="E49" s="6" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
@@ -2522,22 +2586,27 @@
         <v>48</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="C50" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="6"/>
       <c r="E50" s="6" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c r="H50" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="6">
     <mergeCell ref="A1:G1"/>
+    <mergeCell ref="I12:I17"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="I47:I48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="57" orientation="portrait"/>

--- a/STM32/STM32F103C8T6引脚定义.xlsx
+++ b/STM32/STM32F103C8T6引脚定义.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="159">
   <si>
     <t>STM32F103C8T6引脚定义表</t>
   </si>
@@ -184,6 +184,12 @@
     <t>TIM1_BKIN</t>
   </si>
   <si>
+    <t>button</t>
+  </si>
+  <si>
+    <t>按键输入</t>
+  </si>
+  <si>
     <t xml:space="preserve">PA7 </t>
   </si>
   <si>
@@ -400,6 +406,12 @@
     <t>PB4/TIM3_CH1/SPI1_MISO</t>
   </si>
   <si>
+    <t>infrared1</t>
+  </si>
+  <si>
+    <t>红外们_5V</t>
+  </si>
+  <si>
     <t xml:space="preserve">PB5 </t>
   </si>
   <si>
@@ -409,6 +421,9 @@
     <t>TIM3_CH2/SPI1_MOSI</t>
   </si>
   <si>
+    <t>infrared2</t>
+  </si>
+  <si>
     <t xml:space="preserve">PB6 </t>
   </si>
   <si>
@@ -418,6 +433,9 @@
     <t>USART1_TX</t>
   </si>
   <si>
+    <t>infrared3</t>
+  </si>
+  <si>
     <t xml:space="preserve">PB7 </t>
   </si>
   <si>
@@ -425,6 +443,9 @@
   </si>
   <si>
     <t>USART1_RX</t>
+  </si>
+  <si>
+    <t>infrared4</t>
   </si>
   <si>
     <t xml:space="preserve">BOOT0 </t>
@@ -1131,7 +1152,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1175,6 +1196,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1503,8 +1527,8 @@
   </sheetPr>
   <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B25" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.6296296296296" defaultRowHeight="19.5" customHeight="1"/>
@@ -1862,7 +1886,7 @@
       </c>
       <c r="I17" s="15"/>
     </row>
-    <row r="18" customHeight="1" spans="1:8">
+    <row r="18" customHeight="1" spans="1:9">
       <c r="A18" s="8">
         <v>16</v>
       </c>
@@ -1882,27 +1906,32 @@
       <c r="G18" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="H18" s="5"/>
+      <c r="H18" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="I18" s="16" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="19" customHeight="1" spans="1:8">
       <c r="A19" s="8">
         <v>17</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H19" s="5"/>
     </row>
@@ -1911,20 +1940,20 @@
         <v>18</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H20" s="5"/>
     </row>
@@ -1933,20 +1962,20 @@
         <v>19</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H21" s="5"/>
     </row>
@@ -1955,16 +1984,16 @@
         <v>20</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C22" s="10" t="s">
         <v>12</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
@@ -1975,28 +2004,28 @@
         <v>21</v>
       </c>
       <c r="B23" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="C23" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>66</v>
-      </c>
       <c r="E23" s="8" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="H23" s="14" t="s">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="H23" s="13" t="s">
+        <v>73</v>
       </c>
       <c r="I23" s="15" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:9">
@@ -2004,25 +2033,25 @@
         <v>22</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="H24" s="14" t="s">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="H24" s="13" t="s">
+        <v>78</v>
       </c>
       <c r="I24" s="15"/>
     </row>
@@ -2031,14 +2060,14 @@
         <v>23</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D25" s="6"/>
       <c r="E25" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
@@ -2049,14 +2078,14 @@
         <v>24</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D26" s="6"/>
       <c r="E26" s="6" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
@@ -2067,19 +2096,19 @@
         <v>25</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G27" s="9"/>
       <c r="H27" s="5"/>
@@ -2089,19 +2118,19 @@
         <v>26</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G28" s="9"/>
       <c r="H28" s="5"/>
@@ -2111,26 +2140,26 @@
         <v>27</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G29" s="9"/>
       <c r="H29" s="13" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="I29" s="15" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:9">
@@ -2138,23 +2167,23 @@
         <v>28</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C30" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G30" s="9"/>
       <c r="H30" s="13" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="I30" s="15"/>
     </row>
@@ -2163,19 +2192,19 @@
         <v>29</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C31" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G31" s="9"/>
       <c r="H31" s="5"/>
@@ -2185,26 +2214,26 @@
         <v>30</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C32" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G32" s="9"/>
       <c r="H32" s="13" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="I32" s="15" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="1:9">
@@ -2212,23 +2241,23 @@
         <v>31</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C33" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G33" s="9"/>
       <c r="H33" s="13" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="I33" s="15"/>
     </row>
@@ -2237,19 +2266,19 @@
         <v>32</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C34" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G34" s="9"/>
       <c r="H34" s="5"/>
@@ -2259,19 +2288,19 @@
         <v>33</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C35" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G35" s="9"/>
       <c r="H35" s="5"/>
@@ -2281,20 +2310,20 @@
         <v>34</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C36" s="10" t="s">
         <v>12</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F36" s="11"/>
       <c r="G36" s="10" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="H36" s="5"/>
     </row>
@@ -2303,14 +2332,14 @@
         <v>35</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C37" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="6"/>
       <c r="E37" s="6" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
@@ -2321,14 +2350,14 @@
         <v>36</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="6"/>
       <c r="E38" s="6" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
@@ -2339,20 +2368,20 @@
         <v>37</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C39" s="10" t="s">
         <v>12</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F39" s="11"/>
       <c r="G39" s="10" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="H39" s="5"/>
     </row>
@@ -2361,20 +2390,20 @@
         <v>38</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C40" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F40" s="9"/>
       <c r="G40" s="8" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H40" s="5"/>
     </row>
@@ -2383,126 +2412,142 @@
         <v>39</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C41" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F41" s="9"/>
       <c r="G41" s="8" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H41" s="5"/>
     </row>
-    <row r="42" customHeight="1" spans="1:8">
+    <row r="42" customHeight="1" spans="1:9">
       <c r="A42" s="8">
         <v>40</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C42" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F42" s="9"/>
       <c r="G42" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="H42" s="5"/>
-    </row>
-    <row r="43" customHeight="1" spans="1:8">
+        <v>129</v>
+      </c>
+      <c r="H42" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="I42" s="16" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="43" customHeight="1" spans="1:9">
       <c r="A43" s="8">
         <v>41</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C43" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="G43" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="H43" s="5"/>
-    </row>
-    <row r="44" customHeight="1" spans="1:7">
+        <v>134</v>
+      </c>
+      <c r="H43" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="I43" s="16"/>
+    </row>
+    <row r="44" customHeight="1" spans="1:9">
       <c r="A44" s="8">
         <v>42</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C44" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="G44" s="8" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="45" customHeight="1" spans="1:7">
+        <v>138</v>
+      </c>
+      <c r="H44" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="I44" s="16"/>
+    </row>
+    <row r="45" customHeight="1" spans="1:9">
       <c r="A45" s="8">
         <v>43</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="C45" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="G45" s="8" t="s">
-        <v>136</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="H45" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="I45" s="16"/>
     </row>
     <row r="46" customHeight="1" spans="1:7">
       <c r="A46" s="10">
         <v>44</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="C46" s="10" t="s">
         <v>22</v>
       </c>
       <c r="D46" s="10"/>
       <c r="E46" s="10" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="F46" s="11"/>
       <c r="G46" s="11"/>
@@ -2512,28 +2557,28 @@
         <v>45</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="C47" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="G47" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="H47" s="14" t="s">
-        <v>142</v>
+        <v>148</v>
+      </c>
+      <c r="H47" s="13" t="s">
+        <v>149</v>
       </c>
       <c r="I47" s="15" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
     </row>
     <row r="48" customHeight="1" spans="1:9">
@@ -2541,25 +2586,25 @@
         <v>46</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="C48" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="G48" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="H48" s="14" t="s">
-        <v>147</v>
+        <v>153</v>
+      </c>
+      <c r="H48" s="13" t="s">
+        <v>154</v>
       </c>
       <c r="I48" s="15"/>
     </row>
@@ -2568,14 +2613,14 @@
         <v>47</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="C49" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="6"/>
       <c r="E49" s="6" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
@@ -2586,26 +2631,27 @@
         <v>48</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="C50" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="6"/>
       <c r="E50" s="6" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c r="H50" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="I12:I17"/>
     <mergeCell ref="I23:I24"/>
     <mergeCell ref="I29:I30"/>
     <mergeCell ref="I32:I33"/>
+    <mergeCell ref="I42:I45"/>
     <mergeCell ref="I47:I48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
